--- a/Aula17_Rastreabilidade de Requisitos.xlsx
+++ b/Aula17_Rastreabilidade de Requisitos.xlsx
@@ -583,7 +583,7 @@
     <t>Desenvolver em Linguagem</t>
   </si>
   <si>
-    <t>Software deve calcular a média do aluno</t>
+    <t>Software deve calcular a média do aluno a partir de quatro notas bimestrais informadas</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
